--- a/results/mp/deberta/corona/confidence/210/stop-words-masking-0.15/avg_0.004_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/210/stop-words-masking-0.15/avg_0.004_scores.xlsx
@@ -94,13 +94,13 @@
     <t>better</t>
   </si>
   <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
     <t>please</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>safe</t>
   </si>
   <si>
     <t>join</t>
@@ -1156,13 +1156,13 @@
         <v>26</v>
       </c>
       <c r="K16">
-        <v>0.6926406926406926</v>
+        <v>0.6862745098039216</v>
       </c>
       <c r="L16">
-        <v>160</v>
+        <v>70</v>
       </c>
       <c r="M16">
-        <v>168</v>
+        <v>74</v>
       </c>
       <c r="N16">
         <v>0.95</v>
@@ -1174,7 +1174,7 @@
         <v>1</v>
       </c>
       <c r="Q16">
-        <v>71</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -1182,25 +1182,25 @@
         <v>27</v>
       </c>
       <c r="K17">
-        <v>0.6862745098039216</v>
+        <v>0.6737588652482269</v>
       </c>
       <c r="L17">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="M17">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="N17">
-        <v>0.95</v>
+        <v>0.99</v>
       </c>
       <c r="O17">
-        <v>0.05000000000000004</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P17" t="b">
         <v>1</v>
       </c>
       <c r="Q17">
-        <v>32</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1208,25 +1208,25 @@
         <v>28</v>
       </c>
       <c r="K18">
-        <v>0.6737588652482269</v>
+        <v>0.6694560669456067</v>
       </c>
       <c r="L18">
-        <v>95</v>
+        <v>160</v>
       </c>
       <c r="M18">
-        <v>96</v>
+        <v>160</v>
       </c>
       <c r="N18">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O18">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>46</v>
+        <v>79</v>
       </c>
     </row>
     <row r="19" spans="10:17">
@@ -1338,25 +1338,25 @@
         <v>33</v>
       </c>
       <c r="K23">
-        <v>0.5878787878787879</v>
+        <v>0.5705882352941176</v>
       </c>
       <c r="L23">
         <v>194</v>
       </c>
       <c r="M23">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="N23">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O23">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>136</v>
+        <v>146</v>
       </c>
     </row>
     <row r="24" spans="10:17">
